--- a/Original info/NHKWorld xml to xmltv.xlsx
+++ b/Original info/NHKWorld xml to xmltv.xlsx
@@ -563,7 +563,7 @@
   <dimension ref="A1:B27"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
